--- a/biology/Botanique/Vulnéraire_des_montagnes/Vulnéraire_des_montagnes.xlsx
+++ b/biology/Botanique/Vulnéraire_des_montagnes/Vulnéraire_des_montagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9raire_des_montagnes</t>
+          <t>Vulnéraire_des_montagnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllis montana
 La Vulnéraire des montagnes ou Anthyllide des montagnes (Anthyllis montana), est une plante herbacée vivace appartenant à la famille des Fabacées (ou Légumineuses) et au genre Anthyllis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9raire_des_montagnes</t>
+          <t>Vulnéraire_des_montagnes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rampante, à longues feuilles imparipennées, aux fleurs roses en racèmes capitulaires velus portés par de longs pédoncules ascendants à érigés.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9raire_des_montagnes</t>
+          <t>Vulnéraire_des_montagnes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Relativement rare, elle pousse presque toujours dans les régions montagneuses du sud de l'Europe (Alpes et Pyrénées surtout).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9raire_des_montagnes</t>
+          <t>Vulnéraire_des_montagnes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier : elle est considérée Vulnérable (VU) en Bourgogne ; elle est en Danger-critique (CR) en Centre.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vuln%C3%A9raire_des_montagnes</t>
+          <t>Vulnéraire_des_montagnes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypericum nummularium, le Millepertuis à sous est également appelé "Vulnéraire des chartreux" ou simplement "Vulnéraire". Voir l'article.
 </t>
